--- a/election_votar_data/LOHAGARA/CHUNATI/152621/152621_com_325_female_without_photo_19_2025-11-24.xlsx
+++ b/election_votar_data/LOHAGARA/CHUNATI/152621/152621_com_325_female_without_photo_19_2025-11-24.xlsx
@@ -450,7 +450,7 @@
     <col width="20" customWidth="1" min="3" max="3"/>
     <col width="33.5" customWidth="1" min="4" max="4"/>
     <col width="28" customWidth="1" min="5" max="5"/>
-    <col width="42.5" customWidth="1" min="6" max="6"/>
+    <col width="19.5" customWidth="1" min="6" max="6"/>
     <col width="16" customWidth="1" min="7" max="7"/>
     <col width="50" customWidth="1" min="8" max="8"/>
   </cols>
@@ -861,7 +861,7 @@
       </c>
       <c r="F10" s="3" t="inlineStr">
         <is>
-          <t>শ্রমিক জন্ম তারিখ: ১৮/০৬/১৯৯৫</t>
+          <t>শ্রমিক</t>
         </is>
       </c>
       <c r="G10" s="3" t="inlineStr">

--- a/election_votar_data/LOHAGARA/CHUNATI/152621/152621_com_325_female_without_photo_19_2025-11-24.xlsx
+++ b/election_votar_data/LOHAGARA/CHUNATI/152621/152621_com_325_female_without_photo_19_2025-11-24.xlsx
@@ -450,7 +450,7 @@
     <col width="20" customWidth="1" min="3" max="3"/>
     <col width="33.5" customWidth="1" min="4" max="4"/>
     <col width="28" customWidth="1" min="5" max="5"/>
-    <col width="19.5" customWidth="1" min="6" max="6"/>
+    <col width="42.5" customWidth="1" min="6" max="6"/>
     <col width="16" customWidth="1" min="7" max="7"/>
     <col width="50" customWidth="1" min="8" max="8"/>
   </cols>
@@ -861,7 +861,7 @@
       </c>
       <c r="F10" s="3" t="inlineStr">
         <is>
-          <t>শ্রমিক</t>
+          <t>শ্রমিক জন্ম তারিখ: ১৮/০৬/১৯৯৫</t>
         </is>
       </c>
       <c r="G10" s="3" t="inlineStr">
